--- a/data/strategies/西部场外策略结果.xlsx
+++ b/data/strategies/西部场外策略结果.xlsx
@@ -18,17 +18,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="190">
+  <si>
+    <t>易方达沪深300非银ETF联接A</t>
+  </si>
+  <si>
+    <t>广发中证全指可选消费ETF联接A</t>
+  </si>
   <si>
     <t>南方中证申万有色金属ETF联接A</t>
   </si>
   <si>
-    <t>广发中证全指可选消费ETF联接A</t>
-  </si>
-  <si>
-    <t>易方达沪深300非银ETF联接A</t>
-  </si>
-  <si>
     <t>广发中证全指汽车A</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>-0.23%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>8.85%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>2.44%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>13.12%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>15.33%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>19.49%</t>
+    <t>1.85%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>6.43%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>3.54%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>16.73%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
   </si>
   <si>
     <t>15.72%</t>
   </si>
   <si>
-    <t>20.87%</t>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>19.32%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -140,109 +137,106 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>000950.OF</t>
+  </si>
+  <si>
+    <t>001133.OF</t>
+  </si>
+  <si>
     <t>004432.OF</t>
   </si>
   <si>
-    <t>001133.OF</t>
-  </si>
-  <si>
-    <t>000950.OF</t>
-  </si>
-  <si>
     <t>004854.OF</t>
   </si>
   <si>
     <t>008713.OF</t>
   </si>
   <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>-0.86%</t>
-  </si>
-  <si>
-    <t>-3.03%</t>
-  </si>
-  <si>
-    <t>13.33%</t>
-  </si>
-  <si>
-    <t>-1.93%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>5.43%</t>
-  </si>
-  <si>
-    <t>-1.19%</t>
-  </si>
-  <si>
-    <t>34.10%</t>
-  </si>
-  <si>
-    <t>6.75%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>1.93%</t>
-  </si>
-  <si>
-    <t>-11.17%</t>
-  </si>
-  <si>
-    <t>12.94%</t>
-  </si>
-  <si>
-    <t>2.26%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>11.09%</t>
-  </si>
-  <si>
-    <t>14.25%</t>
-  </si>
-  <si>
-    <t>32.37%</t>
-  </si>
-  <si>
-    <t>9.37%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>19.60%</t>
-  </si>
-  <si>
-    <t>31.98%</t>
-  </si>
-  <si>
-    <t>14.27%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
-  </si>
-  <si>
-    <t>18.91%</t>
-  </si>
-  <si>
-    <t>21.50%</t>
-  </si>
-  <si>
-    <t>32.23%</t>
-  </si>
-  <si>
-    <t>18.96%</t>
+    <t>-7.38%</t>
+  </si>
+  <si>
+    <t>-1.25%</t>
+  </si>
+  <si>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>12.95%</t>
+  </si>
+  <si>
+    <t>-2.54%</t>
+  </si>
+  <si>
+    <t>-6.46%</t>
+  </si>
+  <si>
+    <t>0.31%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>30.22%</t>
+  </si>
+  <si>
+    <t>-0.85%</t>
+  </si>
+  <si>
+    <t>-16.88%</t>
+  </si>
+  <si>
+    <t>-0.08%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>15.87%</t>
+  </si>
+  <si>
+    <t>-0.78%</t>
+  </si>
+  <si>
+    <t>17.67%</t>
+  </si>
+  <si>
+    <t>14.08%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>36.32%</t>
+  </si>
+  <si>
+    <t>20.84%</t>
+  </si>
+  <si>
+    <t>14.78%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>32.62%</t>
+  </si>
+  <si>
+    <t>14.42%</t>
+  </si>
+  <si>
+    <t>21.45%</t>
+  </si>
+  <si>
+    <t>18.64%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>32.12%</t>
+  </si>
+  <si>
+    <t>18.76%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -257,7 +251,7 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>601318.SH</t>
@@ -269,112 +263,115 @@
     <t>000651.SZ</t>
   </si>
   <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
     <t>600690.SH</t>
   </si>
   <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
     <t>603486.SH</t>
   </si>
   <si>
     <t>601888.SH</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
     <t>300059.SZ</t>
   </si>
   <si>
-    <t>601899.SH</t>
+    <t>600104.SH</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>688169.SH</t>
   </si>
   <si>
     <t>000625.SZ</t>
   </si>
   <si>
-    <t>600104.SH</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
     <t>601633.SH</t>
   </si>
   <si>
     <t>002508.SZ</t>
   </si>
   <si>
+    <t>600837.SH</t>
+  </si>
+  <si>
     <t>600733.SH</t>
   </si>
   <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
     <t>601601.SH</t>
   </si>
   <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>6.07%</t>
-  </si>
-  <si>
-    <t>5.35%</t>
-  </si>
-  <si>
-    <t>4.57%</t>
-  </si>
-  <si>
-    <t>4.12%</t>
-  </si>
-  <si>
-    <t>2.76%</t>
-  </si>
-  <si>
-    <t>2.70%</t>
-  </si>
-  <si>
-    <t>2.65%</t>
-  </si>
-  <si>
-    <t>2.09%</t>
-  </si>
-  <si>
-    <t>2.05%</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>1.76%</t>
-  </si>
-  <si>
-    <t>1.74%</t>
-  </si>
-  <si>
-    <t>1.51%</t>
-  </si>
-  <si>
-    <t>1.49%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.14%</t>
-  </si>
-  <si>
-    <t>0.96%</t>
-  </si>
-  <si>
-    <t>0.92%</t>
-  </si>
-  <si>
-    <t>0.87%</t>
+    <t>603195.SH</t>
+  </si>
+  <si>
+    <t>601238.SH</t>
+  </si>
+  <si>
+    <t>002027.SZ</t>
+  </si>
+  <si>
+    <t>579.84%</t>
+  </si>
+  <si>
+    <t>559.10%</t>
+  </si>
+  <si>
+    <t>485.86%</t>
+  </si>
+  <si>
+    <t>362.76%</t>
+  </si>
+  <si>
+    <t>346.98%</t>
+  </si>
+  <si>
+    <t>269.91%</t>
+  </si>
+  <si>
+    <t>236.82%</t>
+  </si>
+  <si>
+    <t>225.78%</t>
+  </si>
+  <si>
+    <t>210.78%</t>
+  </si>
+  <si>
+    <t>176.92%</t>
+  </si>
+  <si>
+    <t>173.76%</t>
+  </si>
+  <si>
+    <t>170.97%</t>
+  </si>
+  <si>
+    <t>152.50%</t>
+  </si>
+  <si>
+    <t>114.00%</t>
+  </si>
+  <si>
+    <t>92.46%</t>
+  </si>
+  <si>
+    <t>82.88%</t>
+  </si>
+  <si>
+    <t>82.56%</t>
+  </si>
+  <si>
+    <t>81.51%</t>
+  </si>
+  <si>
+    <t>80.80%</t>
+  </si>
+  <si>
+    <t>78.15%</t>
   </si>
   <si>
     <t>中国平安</t>
@@ -386,55 +383,55 @@
     <t>格力电器</t>
   </si>
   <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
     <t>海尔智家</t>
   </si>
   <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
     <t>科沃斯</t>
   </si>
   <si>
     <t>中国中免</t>
   </si>
   <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
     <t>东方财富</t>
   </si>
   <si>
-    <t>紫金矿业</t>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>石头科技</t>
   </si>
   <si>
     <t>长安汽车</t>
   </si>
   <si>
-    <t>上汽集团</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
     <t>长城汽车</t>
   </si>
   <si>
     <t>老板电器</t>
   </si>
   <si>
+    <t>海通证券</t>
+  </si>
+  <si>
     <t>北汽蓝谷</t>
   </si>
   <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
     <t>中国太保</t>
   </si>
   <si>
-    <t>格林美</t>
+    <t>公牛集团</t>
+  </si>
+  <si>
+    <t>广汽集团</t>
+  </si>
+  <si>
+    <t>分众传媒</t>
   </si>
   <si>
     <t>产险:机动车辆保险</t>
@@ -446,109 +443,106 @@
     <t>空调</t>
   </si>
   <si>
+    <t>汽车</t>
+  </si>
+  <si>
     <t>电冰箱</t>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
     <t>服务机器人</t>
   </si>
   <si>
     <t>商品贸易-免税商品</t>
   </si>
   <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
     <t>证券经纪业务</t>
   </si>
   <si>
-    <t>加工、冶炼及贸易金</t>
+    <t>整车业务</t>
+  </si>
+  <si>
+    <t>智能扫地机</t>
   </si>
   <si>
     <t>整车</t>
   </si>
   <si>
-    <t>整车业务</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>销售汽车收入</t>
   </si>
   <si>
     <t>油烟机</t>
   </si>
   <si>
-    <t>其他业务</t>
-  </si>
-  <si>
     <t>个人寿险</t>
   </si>
   <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>151.63%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>24.06%</t>
+    <t>电连接产品</t>
+  </si>
+  <si>
+    <t>乘用车</t>
+  </si>
+  <si>
+    <t>楼宇媒体</t>
+  </si>
+  <si>
+    <t>-29.54%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
   </si>
   <si>
     <t>-8.19%</t>
   </si>
   <si>
-    <t>-11.82%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>20.38%</t>
-  </si>
-  <si>
-    <t>14.96%</t>
-  </si>
-  <si>
-    <t>71.97%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>-16.40%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
+    <t>148.35%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>-10.69%</t>
+  </si>
+  <si>
+    <t>-16.18%</t>
+  </si>
+  <si>
+    <t>7.46%</t>
+  </si>
+  <si>
+    <t>38.97%</t>
+  </si>
+  <si>
+    <t>32.81%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>-6.00%</t>
+  </si>
+  <si>
+    <t>52.13%</t>
+  </si>
+  <si>
+    <t>-20.79%</t>
+  </si>
+  <si>
+    <t>13.18%</t>
+  </si>
+  <si>
+    <t>17.56%</t>
+  </si>
+  <si>
+    <t>-13.42%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -557,49 +551,43 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>家电家具</t>
+    <t>家用电器</t>
   </si>
   <si>
     <t>保险</t>
   </si>
   <si>
-    <t>锂电池</t>
-  </si>
-  <si>
     <t>证券</t>
   </si>
   <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>机械设备</t>
-  </si>
-  <si>
     <t>商业贸易</t>
   </si>
   <si>
-    <t>32.21%</t>
-  </si>
-  <si>
-    <t>18.62%</t>
-  </si>
-  <si>
-    <t>14.61%</t>
-  </si>
-  <si>
-    <t>9.34%</t>
-  </si>
-  <si>
-    <t>7.92%</t>
-  </si>
-  <si>
-    <t>6.10%</t>
-  </si>
-  <si>
-    <t>5.64%</t>
-  </si>
-  <si>
-    <t>5.54%</t>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>营销服务</t>
+  </si>
+  <si>
+    <t>24.37%</t>
+  </si>
+  <si>
+    <t>13.26%</t>
+  </si>
+  <si>
+    <t>8.28%</t>
+  </si>
+  <si>
+    <t>6.19%</t>
+  </si>
+  <si>
+    <t>2.96%</t>
+  </si>
+  <si>
+    <t>1.02%</t>
+  </si>
+  <si>
+    <t>0.98%</t>
   </si>
 </sst>
 </file>
@@ -963,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1032,13 +1020,13 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.053925925925926</v>
+        <v>0.9973515591627509</v>
       </c>
       <c r="C3">
         <v>1.015057573073517</v>
       </c>
       <c r="D3">
-        <v>0.9973515591627509</v>
+        <v>1.053925925925926</v>
       </c>
       <c r="E3">
         <v>1.0012494487726</v>
@@ -1061,13 +1049,13 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>1.065283950617284</v>
+        <v>0.9929944468175993</v>
       </c>
       <c r="C4">
         <v>1.02204507430371</v>
       </c>
       <c r="D4">
-        <v>0.9929944468175993</v>
+        <v>1.065283950617284</v>
       </c>
       <c r="E4">
         <v>0.9866235484345142</v>
@@ -1090,13 +1078,13 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.070320987654321</v>
+        <v>1.001025202904742</v>
       </c>
       <c r="C5">
         <v>1.013286093888397</v>
       </c>
       <c r="D5">
-        <v>1.001025202904742</v>
+        <v>1.070320987654321</v>
       </c>
       <c r="E5">
         <v>0.9745700426282523</v>
@@ -1119,13 +1107,13 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.109135802469136</v>
+        <v>1.011362665527552</v>
       </c>
       <c r="C6">
         <v>1.023324475937408</v>
       </c>
       <c r="D6">
-        <v>1.011362665527552</v>
+        <v>1.109135802469136</v>
       </c>
       <c r="E6">
         <v>1.001910921652212</v>
@@ -1148,13 +1136,13 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.105481481481482</v>
+        <v>1.006236651003844</v>
       </c>
       <c r="C7">
         <v>1.026965849817931</v>
       </c>
       <c r="D7">
-        <v>1.006236651003844</v>
+        <v>1.105481481481482</v>
       </c>
       <c r="E7">
         <v>1.028884315743055</v>
@@ -1177,13 +1165,13 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>1.064395061728395</v>
+        <v>0.9841947885519008</v>
       </c>
       <c r="C8">
         <v>1.027457927369353</v>
       </c>
       <c r="D8">
-        <v>0.9841947885519008</v>
+        <v>1.064395061728395</v>
       </c>
       <c r="E8">
         <v>1.040570336616199</v>
@@ -1206,13 +1194,13 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.087012345679012</v>
+        <v>1.041178983340453</v>
       </c>
       <c r="C9">
         <v>1.046255289833678</v>
       </c>
       <c r="D9">
-        <v>1.041178983340453</v>
+        <v>1.087012345679012</v>
       </c>
       <c r="E9">
         <v>1.042922240188152</v>
@@ -1235,13 +1223,13 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.054716049382716</v>
+        <v>1.026655275523281</v>
       </c>
       <c r="C10">
         <v>1.043007577994292</v>
       </c>
       <c r="D10">
-        <v>1.026655275523281</v>
+        <v>1.054716049382716</v>
       </c>
       <c r="E10">
         <v>1.03998236072321</v>
@@ -1264,13 +1252,13 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.036444444444445</v>
+        <v>1.003673643741991</v>
       </c>
       <c r="C11">
         <v>1.022143489813995</v>
       </c>
       <c r="D11">
-        <v>1.003673643741991</v>
+        <v>1.036444444444445</v>
       </c>
       <c r="E11">
         <v>1.000146993973247</v>
@@ -1293,13 +1281,13 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.045925925925926</v>
+        <v>1.010679196924391</v>
       </c>
       <c r="C12">
         <v>1.02627694124594</v>
       </c>
       <c r="D12">
-        <v>1.010679196924391</v>
+        <v>1.045925925925926</v>
       </c>
       <c r="E12">
         <v>1.005659267970013</v>
@@ -1322,13 +1310,13 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.060938271604938</v>
+        <v>1.018111917983767</v>
       </c>
       <c r="C13">
         <v>1.034543844109832</v>
       </c>
       <c r="D13">
-        <v>1.018111917983767</v>
+        <v>1.060938271604938</v>
       </c>
       <c r="E13">
         <v>0.9925033073643981</v>
@@ -1351,13 +1339,13 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.025975308641975</v>
+        <v>1.016830414352841</v>
       </c>
       <c r="C14">
         <v>1.020372010628875</v>
       </c>
       <c r="D14">
-        <v>1.016830414352841</v>
+        <v>1.025975308641975</v>
       </c>
       <c r="E14">
         <v>0.9773629281199472</v>
@@ -1380,13 +1368,13 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.05441975308642</v>
+        <v>1.008714224690303</v>
       </c>
       <c r="C15">
         <v>1.028442082472198</v>
       </c>
       <c r="D15">
-        <v>1.008714224690303</v>
+        <v>1.05441975308642</v>
       </c>
       <c r="E15">
         <v>0.9913273555784212</v>
@@ -1409,13 +1397,13 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.089777777777778</v>
+        <v>1.014438274241777</v>
       </c>
       <c r="C16">
         <v>1.041531345340026</v>
       </c>
       <c r="D16">
-        <v>1.014438274241777</v>
+        <v>1.089777777777778</v>
       </c>
       <c r="E16">
         <v>1.003674849331177</v>
@@ -1438,13 +1426,13 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.099555555555556</v>
+        <v>0.9966680905595899</v>
       </c>
       <c r="C17">
         <v>1.045664796771971</v>
       </c>
       <c r="D17">
-        <v>0.9966680905595899</v>
+        <v>1.099555555555556</v>
       </c>
       <c r="E17">
         <v>1.008672644421579</v>
@@ -1467,13 +1455,13 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.114567901234568</v>
+        <v>0.9996582656984193</v>
       </c>
       <c r="C18">
         <v>1.051176065347899</v>
       </c>
       <c r="D18">
-        <v>0.9996582656984193</v>
+        <v>1.114567901234568</v>
       </c>
       <c r="E18">
         <v>1.020652653241217</v>
@@ -1496,13 +1484,13 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>1.095308641975309</v>
+        <v>0.9690730457069628</v>
       </c>
       <c r="C19">
         <v>1.031099301249877</v>
       </c>
       <c r="D19">
-        <v>0.9690730457069628</v>
+        <v>1.095308641975309</v>
       </c>
       <c r="E19">
         <v>1.002425400558577</v>
@@ -1525,13 +1513,13 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>1.088987654320988</v>
+        <v>0.9704399829132848</v>
       </c>
       <c r="C20">
         <v>1.035429583702391</v>
       </c>
       <c r="D20">
-        <v>0.9704399829132848</v>
+        <v>1.088987654320988</v>
       </c>
       <c r="E20">
         <v>1.000293987946494</v>
@@ -1554,13 +1542,13 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>1.051160493827161</v>
+        <v>0.9568560444254592</v>
       </c>
       <c r="C21">
         <v>1.009743135518158</v>
       </c>
       <c r="D21">
-        <v>0.9568560444254592</v>
+        <v>1.051160493827161</v>
       </c>
       <c r="E21">
         <v>0.9733940908422755</v>
@@ -1583,13 +1571,13 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>1.039111111111111</v>
+        <v>0.9419051687313114</v>
       </c>
       <c r="C22">
         <v>1.005216022045074</v>
       </c>
       <c r="D22">
-        <v>0.9419051687313114</v>
+        <v>1.039111111111111</v>
       </c>
       <c r="E22">
         <v>0.9571512567984712</v>
@@ -1598,7 +1586,7 @@
         <v>1.002199673596821</v>
       </c>
       <c r="G22">
-        <v>0.9939231229812183</v>
+        <v>0.9939231229812182</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1612,13 +1600,13 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>1.05037037037037</v>
+        <v>0.9428449380606577</v>
       </c>
       <c r="C23">
         <v>1.016041728176361</v>
       </c>
       <c r="D23">
-        <v>0.9428449380606577</v>
+        <v>1.05037037037037</v>
       </c>
       <c r="E23">
         <v>0.9479641334705278</v>
@@ -1641,13 +1629,13 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>1.079506172839506</v>
+        <v>0.9418197351559162</v>
       </c>
       <c r="C24">
         <v>1.045763212282256</v>
       </c>
       <c r="D24">
-        <v>0.9418197351559162</v>
+        <v>1.079506172839506</v>
       </c>
       <c r="E24">
         <v>1.004042334264295</v>
@@ -1670,13 +1658,13 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>1.085037037037037</v>
+        <v>0.9288338316958563</v>
       </c>
       <c r="C25">
         <v>1.03985828166519</v>
       </c>
       <c r="D25">
-        <v>0.9288338316958563</v>
+        <v>1.085037037037037</v>
       </c>
       <c r="E25">
         <v>0.9905923857121859</v>
@@ -1699,13 +1687,13 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>1.041679012345679</v>
+        <v>0.9278940623665101</v>
       </c>
       <c r="C26">
         <v>1.0271626808385</v>
       </c>
       <c r="D26">
-        <v>0.9278940623665101</v>
+        <v>1.041679012345679</v>
       </c>
       <c r="E26">
         <v>0.9798618256651477</v>
@@ -1728,13 +1716,13 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>0.992888888888889</v>
+        <v>0.9263562580093977</v>
       </c>
       <c r="C27">
         <v>1.019781517567169</v>
       </c>
       <c r="D27">
-        <v>0.9263562580093977</v>
+        <v>0.992888888888889</v>
       </c>
       <c r="E27">
         <v>0.9448772600323387</v>
@@ -1757,13 +1745,13 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>1.030518518518519</v>
+        <v>0.9222554463904313</v>
       </c>
       <c r="C28">
         <v>1.029032575533904</v>
       </c>
       <c r="D28">
-        <v>0.9222554463904313</v>
+        <v>1.030518518518519</v>
       </c>
       <c r="E28">
         <v>0.9593561663971776</v>
@@ -1786,13 +1774,13 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>1.078518518518519</v>
+        <v>0.936437419906023</v>
       </c>
       <c r="C29">
         <v>1.048715677590788</v>
       </c>
       <c r="D29">
-        <v>0.936437419906023</v>
+        <v>1.078518518518519</v>
       </c>
       <c r="E29">
         <v>0.9761134793473468</v>
@@ -1815,13 +1803,13 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>1.106172839506173</v>
+        <v>0.9419051687313114</v>
       </c>
       <c r="C30">
         <v>1.070071843322508</v>
       </c>
       <c r="D30">
-        <v>0.9419051687313114</v>
+        <v>1.106172839506173</v>
       </c>
       <c r="E30">
         <v>0.9994855210936352</v>
@@ -1844,13 +1832,13 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>1.177382716049383</v>
+        <v>0.9580521144809909</v>
       </c>
       <c r="C31">
         <v>1.064363743726011</v>
       </c>
       <c r="D31">
-        <v>0.9580521144809909</v>
+        <v>1.177382716049383</v>
       </c>
       <c r="E31">
         <v>1.007055710715861</v>
@@ -1873,13 +1861,13 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.193679012345679</v>
+        <v>0.9759931653139684</v>
       </c>
       <c r="C32">
         <v>1.066036807400846</v>
       </c>
       <c r="D32">
-        <v>0.9759931653139684</v>
+        <v>1.193679012345679</v>
       </c>
       <c r="E32">
         <v>1.010216081140673</v>
@@ -1902,13 +1890,13 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>1.248592592592593</v>
+        <v>0.955489107219137</v>
       </c>
       <c r="C33">
         <v>1.027654758389922</v>
       </c>
       <c r="D33">
-        <v>0.955489107219137</v>
+        <v>1.248592592592593</v>
       </c>
       <c r="E33">
         <v>0.9773629281199472</v>
@@ -1931,13 +1919,13 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>1.233283950617284</v>
+        <v>0.9604442545920546</v>
       </c>
       <c r="C34">
         <v>1.016041728176361</v>
       </c>
       <c r="D34">
-        <v>0.9604442545920546</v>
+        <v>1.233283950617284</v>
       </c>
       <c r="E34">
         <v>0.9448772600323387</v>
@@ -1960,13 +1948,13 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>1.182617283950617</v>
+        <v>0.9528406663818879</v>
       </c>
       <c r="C35">
         <v>1.005511268575928</v>
       </c>
       <c r="D35">
-        <v>0.9528406663818879</v>
+        <v>1.182617283950617</v>
       </c>
       <c r="E35">
         <v>0.92253417609878</v>
@@ -1989,13 +1977,13 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>1.170172839506173</v>
+        <v>0.9695856471593336</v>
       </c>
       <c r="C36">
         <v>1.006200177147919</v>
       </c>
       <c r="D36">
-        <v>0.9695856471593336</v>
+        <v>1.170172839506173</v>
       </c>
       <c r="E36">
         <v>0.9166544171688961</v>
@@ -2018,13 +2006,13 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>1.12079012345679</v>
+        <v>0.9493378897906877</v>
       </c>
       <c r="C37">
         <v>0.9881901387658695</v>
       </c>
       <c r="D37">
-        <v>0.9493378897906877</v>
+        <v>1.12079012345679</v>
       </c>
       <c r="E37">
         <v>0.9112156401587534</v>
@@ -2047,13 +2035,13 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>1.159308641975309</v>
+        <v>0.9434429730884237</v>
       </c>
       <c r="C38">
         <v>1.013187678378112</v>
       </c>
       <c r="D38">
-        <v>0.9434429730884237</v>
+        <v>1.159308641975309</v>
       </c>
       <c r="E38">
         <v>0.9260620314567103</v>
@@ -2076,13 +2064,13 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>1.122864197530864</v>
+        <v>0.9317385732592909</v>
       </c>
       <c r="C39">
         <v>1.00846373388446</v>
       </c>
       <c r="D39">
-        <v>0.9317385732592909</v>
+        <v>1.122864197530864</v>
       </c>
       <c r="E39">
         <v>0.9177568719682492</v>
@@ -2105,13 +2093,13 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>1.161975308641976</v>
+        <v>0.9560871422469029</v>
       </c>
       <c r="C40">
         <v>1.017517960830627</v>
       </c>
       <c r="D40">
-        <v>0.9560871422469029</v>
+        <v>1.161975308641976</v>
       </c>
       <c r="E40">
         <v>0.9304718506541232</v>
@@ -2134,13 +2122,13 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>1.119012345679012</v>
+        <v>0.9433575395130286</v>
       </c>
       <c r="C41">
         <v>0.993012498769806</v>
       </c>
       <c r="D41">
-        <v>0.9433575395130286</v>
+        <v>1.119012345679012</v>
       </c>
       <c r="E41">
         <v>0.9084227546670586</v>
@@ -2163,13 +2151,13 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>1.084641975308642</v>
+        <v>0.9435284066638189</v>
       </c>
       <c r="C42">
         <v>0.9964570416297608</v>
       </c>
       <c r="D42">
-        <v>0.9435284066638189</v>
+        <v>1.084641975308642</v>
       </c>
       <c r="E42">
         <v>0.9224606791121565</v>
@@ -2192,13 +2180,13 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>1.056197530864198</v>
+        <v>0.9347287483981205</v>
       </c>
       <c r="C43">
         <v>0.9664403109930125</v>
       </c>
       <c r="D43">
-        <v>0.9347287483981205</v>
+        <v>1.056197530864198</v>
       </c>
       <c r="E43">
         <v>0.892253417609878</v>
@@ -2221,13 +2209,13 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>1.04</v>
+        <v>0.9185818026484407</v>
       </c>
       <c r="C44">
         <v>0.9528589705737623</v>
       </c>
       <c r="D44">
-        <v>0.9185818026484407</v>
+        <v>1.04</v>
       </c>
       <c r="E44">
         <v>0.8654270174922828</v>
@@ -2250,13 +2238,13 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>1.039012345679012</v>
+        <v>0.9113199487398547</v>
       </c>
       <c r="C45">
         <v>0.9615195354787914</v>
       </c>
       <c r="D45">
-        <v>0.9113199487398547</v>
+        <v>1.039012345679012</v>
       </c>
       <c r="E45">
         <v>0.8672644421578715</v>
@@ -2279,13 +2267,13 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>1.099950617283951</v>
+        <v>0.9313968389577103</v>
       </c>
       <c r="C46">
         <v>0.9738214742643441</v>
       </c>
       <c r="D46">
-        <v>0.9313968389577103</v>
+        <v>1.099950617283951</v>
       </c>
       <c r="E46">
         <v>0.8857121858003822</v>
@@ -2308,13 +2296,13 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>1.087901234567901</v>
+        <v>0.9274668944895342</v>
       </c>
       <c r="C47">
         <v>0.9786438342682806</v>
       </c>
       <c r="D47">
-        <v>0.9274668944895342</v>
+        <v>1.087901234567901</v>
       </c>
       <c r="E47">
         <v>0.8924739085697486</v>
@@ -2337,13 +2325,13 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>1.089876543209876</v>
+        <v>0.9158479282357966</v>
       </c>
       <c r="C48">
         <v>0.965849817931306</v>
       </c>
       <c r="D48">
-        <v>0.9158479282357966</v>
+        <v>1.089876543209876</v>
       </c>
       <c r="E48">
         <v>0.8778480082316624</v>
@@ -2366,13 +2354,13 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>1.068246913580247</v>
+        <v>0.9205467748825287</v>
       </c>
       <c r="C49">
         <v>0.9761834465111702</v>
       </c>
       <c r="D49">
-        <v>0.9205467748825287</v>
+        <v>1.068246913580247</v>
       </c>
       <c r="E49">
         <v>0.8810083786564752</v>
@@ -2381,7 +2369,7 @@
         <v>0.9489108067835095</v>
       </c>
       <c r="G49">
-        <v>0.9684967708682557</v>
+        <v>0.9684967708682556</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2395,13 +2383,13 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>1.074172839506173</v>
+        <v>0.9089278086287911</v>
       </c>
       <c r="C50">
         <v>0.9900600334612735</v>
       </c>
       <c r="D50">
-        <v>0.9089278086287911</v>
+        <v>1.074172839506173</v>
       </c>
       <c r="E50">
         <v>0.8854916948405116</v>
@@ -2424,13 +2412,13 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>1.074271604938271</v>
+        <v>0.9047415634344296</v>
       </c>
       <c r="C51">
         <v>0.9982285208148804</v>
       </c>
       <c r="D51">
-        <v>0.9047415634344296</v>
+        <v>1.074271604938271</v>
       </c>
       <c r="E51">
         <v>0.8821843304424518</v>
@@ -2453,13 +2441,13 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>1.053037037037037</v>
+        <v>0.890559589918838</v>
       </c>
       <c r="C52">
         <v>0.9790374963094184</v>
       </c>
       <c r="D52">
-        <v>0.890559589918838</v>
+        <v>1.053037037037037</v>
       </c>
       <c r="E52">
         <v>0.8650595325591651</v>
@@ -2482,13 +2470,13 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>1.056493827160494</v>
+        <v>0.8987612131567706</v>
       </c>
       <c r="C53">
         <v>0.9923235901978151</v>
       </c>
       <c r="D53">
-        <v>0.8987612131567706</v>
+        <v>1.056493827160494</v>
       </c>
       <c r="E53">
         <v>0.8825518153755696</v>
@@ -2511,13 +2499,13 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>1.01758024691358</v>
+        <v>0.9025202904741563</v>
       </c>
       <c r="C54">
         <v>0.9781517567168586</v>
       </c>
       <c r="D54">
-        <v>0.9025202904741563</v>
+        <v>1.01758024691358</v>
       </c>
       <c r="E54">
         <v>0.8643980596795531</v>
@@ -2540,13 +2528,13 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.977283950617284</v>
+        <v>0.8990175138829559</v>
       </c>
       <c r="C55">
         <v>0.9668339730341502</v>
       </c>
       <c r="D55">
-        <v>0.8990175138829559</v>
+        <v>0.977283950617284</v>
       </c>
       <c r="E55">
         <v>0.8422019697192414</v>
@@ -2569,13 +2557,13 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>0.9830123456790123</v>
+        <v>0.8961127723195215</v>
       </c>
       <c r="C56">
         <v>0.9638815077256176</v>
       </c>
       <c r="D56">
-        <v>0.8961127723195215</v>
+        <v>0.9830123456790123</v>
       </c>
       <c r="E56">
         <v>0.8380861384683228</v>
@@ -2598,13 +2586,13 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>1.015012345679013</v>
+        <v>0.9037163605296882</v>
       </c>
       <c r="C57">
         <v>0.9840566873339238</v>
       </c>
       <c r="D57">
-        <v>0.9037163605296882</v>
+        <v>1.015012345679013</v>
       </c>
       <c r="E57">
         <v>0.8666029692782596</v>
@@ -2627,13 +2615,13 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>1.011950617283951</v>
+        <v>0.9002135839384878</v>
       </c>
       <c r="C58">
         <v>0.9809073910048224</v>
       </c>
       <c r="D58">
-        <v>0.9002135839384878</v>
+        <v>1.011950617283951</v>
       </c>
       <c r="E58">
         <v>0.854328972512127</v>
@@ -2656,13 +2644,13 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>1.025185185185185</v>
+        <v>0.9000427167876975</v>
       </c>
       <c r="C59">
         <v>0.982482039169373</v>
       </c>
       <c r="D59">
-        <v>0.9000427167876975</v>
+        <v>1.025185185185185</v>
       </c>
       <c r="E59">
         <v>0.856607379097457</v>
@@ -2685,13 +2673,13 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>1.002074074074074</v>
+        <v>0.8889363519863306</v>
       </c>
       <c r="C60">
         <v>0.9785454187579962</v>
       </c>
       <c r="D60">
-        <v>0.8889363519863306</v>
+        <v>1.002074074074074</v>
       </c>
       <c r="E60">
         <v>0.8509481111274437</v>
@@ -2714,13 +2702,13 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>1.010469135802469</v>
+        <v>0.8960273387441263</v>
       </c>
       <c r="C61">
         <v>0.9933077453006595</v>
       </c>
       <c r="D61">
-        <v>0.8960273387441263</v>
+        <v>1.010469135802469</v>
       </c>
       <c r="E61">
         <v>0.8716742613552844</v>
@@ -2743,13 +2731,13 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>1.018666666666667</v>
+        <v>0.8954293037163605</v>
       </c>
       <c r="C62">
         <v>1.005609684086212</v>
       </c>
       <c r="D62">
-        <v>0.8954293037163605</v>
+        <v>1.018666666666667</v>
       </c>
       <c r="E62">
         <v>0.8874026164927238</v>
@@ -2758,7 +2746,7 @@
         <v>1.010501667494501</v>
       </c>
       <c r="G62">
-        <v>0.9753426944506416</v>
+        <v>0.9753426944506417</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2772,13 +2760,13 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>1.024</v>
+        <v>0.8950021358393849</v>
       </c>
       <c r="C63">
         <v>1.000098415510284</v>
       </c>
       <c r="D63">
-        <v>0.8950021358393849</v>
+        <v>1.024</v>
       </c>
       <c r="E63">
         <v>0.8994561222989857</v>
@@ -2787,7 +2775,7 @@
         <v>1.00411551834244</v>
       </c>
       <c r="G63">
-        <v>0.9745986677193487</v>
+        <v>0.9745986677193488</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2801,13 +2789,13 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>1.035654320987654</v>
+        <v>0.88859461768475</v>
       </c>
       <c r="C64">
         <v>0.9961617950989076</v>
       </c>
       <c r="D64">
-        <v>0.88859461768475</v>
+        <v>1.035654320987654</v>
       </c>
       <c r="E64">
         <v>0.8897545200646773</v>
@@ -2830,13 +2818,13 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>1.048098765432099</v>
+        <v>0.8909013242204185</v>
       </c>
       <c r="C65">
         <v>0.9957681330577699</v>
       </c>
       <c r="D65">
-        <v>0.8909013242204185</v>
+        <v>1.048098765432099</v>
       </c>
       <c r="E65">
         <v>0.891591944730266</v>
@@ -2845,7 +2833,7 @@
         <v>1.003973603916838</v>
       </c>
       <c r="G65">
-        <v>0.9764843731042288</v>
+        <v>0.9764843731042285</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2859,13 +2847,13 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>1.045728395061728</v>
+        <v>0.879367791542076</v>
       </c>
       <c r="C66">
         <v>0.9892727093789982</v>
       </c>
       <c r="D66">
-        <v>0.879367791542076</v>
+        <v>1.045728395061728</v>
       </c>
       <c r="E66">
         <v>0.8821843304424518</v>
@@ -2888,13 +2876,13 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>1.004543209876543</v>
+        <v>0.8684322938914992</v>
       </c>
       <c r="C67">
         <v>0.9712626709969491</v>
       </c>
       <c r="D67">
-        <v>0.8684322938914992</v>
+        <v>1.004543209876543</v>
       </c>
       <c r="E67">
         <v>0.8693223577833309</v>
@@ -2917,13 +2905,13 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.9978271604938271</v>
+        <v>0.8651003844510892</v>
       </c>
       <c r="C68">
         <v>0.957189253026277</v>
       </c>
       <c r="D68">
-        <v>0.8651003844510892</v>
+        <v>0.9978271604938271</v>
       </c>
       <c r="E68">
         <v>0.8741731589004851</v>
@@ -2946,13 +2934,13 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>1.020246913580247</v>
+        <v>0.8731311405382315</v>
       </c>
       <c r="C69">
         <v>0.9792343273299872</v>
       </c>
       <c r="D69">
-        <v>0.8731311405382315</v>
+        <v>1.020246913580247</v>
       </c>
       <c r="E69">
         <v>0.8919594296633838</v>
@@ -2975,13 +2963,13 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>1.035358024691358</v>
+        <v>0.8634771465185817</v>
       </c>
       <c r="C70">
         <v>0.9749040448774727</v>
       </c>
       <c r="D70">
-        <v>0.8634771465185817</v>
+        <v>1.035358024691358</v>
       </c>
       <c r="E70">
         <v>0.886888137586359</v>
@@ -3004,13 +2992,13 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>1.029827160493827</v>
+        <v>0.8679196924391285</v>
       </c>
       <c r="C71">
         <v>0.9870091526424564</v>
       </c>
       <c r="D71">
-        <v>0.8679196924391285</v>
+        <v>1.029827160493827</v>
       </c>
       <c r="E71">
         <v>0.9188593267676025</v>
@@ -3033,13 +3021,13 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>1.066666666666667</v>
+        <v>0.8821016659547201</v>
       </c>
       <c r="C72">
         <v>1.009743135518158</v>
       </c>
       <c r="D72">
-        <v>0.8821016659547201</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="E72">
         <v>0.973467587828899</v>
@@ -3062,13 +3050,13 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>1.057086419753086</v>
+        <v>0.8761213156770611</v>
       </c>
       <c r="C73">
         <v>1.004330282452514</v>
       </c>
       <c r="D73">
-        <v>0.8761213156770611</v>
+        <v>1.057086419753086</v>
       </c>
       <c r="E73">
         <v>0.9644274584742025</v>
@@ -3091,13 +3079,13 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>1.049876543209876</v>
+        <v>0.8731311405382315</v>
       </c>
       <c r="C74">
         <v>1.00088573959256</v>
       </c>
       <c r="D74">
-        <v>0.8731311405382315</v>
+        <v>1.049876543209876</v>
       </c>
       <c r="E74">
         <v>0.9457592238718212</v>
@@ -3120,13 +3108,13 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>1.054024691358025</v>
+        <v>0.8756941478000853</v>
       </c>
       <c r="C75">
         <v>1.000787324082275</v>
       </c>
       <c r="D75">
-        <v>0.8756941478000853</v>
+        <v>1.054024691358025</v>
       </c>
       <c r="E75">
         <v>0.9384095252094663</v>
@@ -3149,13 +3137,13 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>1.065086419753086</v>
+        <v>0.8769756514310123</v>
       </c>
       <c r="C76">
         <v>1.00177147918512</v>
       </c>
       <c r="D76">
-        <v>0.8769756514310123</v>
+        <v>1.065086419753086</v>
       </c>
       <c r="E76">
         <v>0.9339997060120534</v>
@@ -3178,13 +3166,13 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>1.072987654320988</v>
+        <v>0.8611704399829132</v>
       </c>
       <c r="C77">
         <v>0.99488239346521</v>
       </c>
       <c r="D77">
-        <v>0.8611704399829132</v>
+        <v>1.072987654320988</v>
       </c>
       <c r="E77">
         <v>0.9337057180655592</v>
@@ -3207,13 +3195,13 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>1.075259259259259</v>
+        <v>0.8591200341734301</v>
       </c>
       <c r="C78">
         <v>0.996260210609192</v>
       </c>
       <c r="D78">
-        <v>0.8591200341734301</v>
+        <v>1.075259259259259</v>
       </c>
       <c r="E78">
         <v>0.9161399382625312</v>
@@ -3236,13 +3224,13 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>1.075654320987654</v>
+        <v>0.8608287056813327</v>
       </c>
       <c r="C79">
         <v>1.004723944493652</v>
       </c>
       <c r="D79">
-        <v>0.8608287056813327</v>
+        <v>1.075654320987654</v>
       </c>
       <c r="E79">
         <v>0.9303248566808761</v>
@@ -3265,13 +3253,13 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>1.085530864197531</v>
+        <v>0.8772319521571976</v>
       </c>
       <c r="C80">
         <v>1.00600334612735</v>
       </c>
       <c r="D80">
-        <v>0.8772319521571976</v>
+        <v>1.085530864197531</v>
       </c>
       <c r="E80">
         <v>0.9222401881522857</v>
@@ -3294,13 +3282,13 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>1.083358024691358</v>
+        <v>0.8660401537804356</v>
       </c>
       <c r="C81">
         <v>1.000492077551422</v>
       </c>
       <c r="D81">
-        <v>0.8660401537804356</v>
+        <v>1.083358024691358</v>
       </c>
       <c r="E81">
         <v>0.9173893870351315</v>
@@ -3323,13 +3311,13 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>1.109135802469136</v>
+        <v>0.8546774882528833</v>
       </c>
       <c r="C82">
         <v>0.9900600334612735</v>
       </c>
       <c r="D82">
-        <v>0.8546774882528833</v>
+        <v>1.109135802469136</v>
       </c>
       <c r="E82">
         <v>0.9233426429516389</v>
@@ -3352,13 +3340,13 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>1.136987654320988</v>
+        <v>0.8450234942332335</v>
       </c>
       <c r="C83">
         <v>0.9718531640586557</v>
       </c>
       <c r="D83">
-        <v>0.8450234942332335</v>
+        <v>1.136987654320988</v>
       </c>
       <c r="E83">
         <v>0.900411583125092</v>
@@ -3381,13 +3369,13 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>1.191012345679012</v>
+        <v>0.8423750533959845</v>
       </c>
       <c r="C84">
         <v>0.9788406652888496</v>
       </c>
       <c r="D84">
-        <v>0.8423750533959845</v>
+        <v>1.191012345679012</v>
       </c>
       <c r="E84">
         <v>0.9244450977509923</v>
@@ -3410,13 +3398,13 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>1.144296296296296</v>
+        <v>0.8492951730029901</v>
       </c>
       <c r="C85">
         <v>0.9784470032477118</v>
       </c>
       <c r="D85">
-        <v>0.8492951730029901</v>
+        <v>1.144296296296296</v>
       </c>
       <c r="E85">
         <v>0.925621049536969</v>
@@ -3439,13 +3427,13 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>1.149432098765432</v>
+        <v>0.8471593336181119</v>
       </c>
       <c r="C86">
         <v>0.9866154906013187</v>
       </c>
       <c r="D86">
-        <v>0.8471593336181119</v>
+        <v>1.149432098765432</v>
       </c>
       <c r="E86">
         <v>0.9650154343671908</v>
@@ -3468,13 +3456,13 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>1.095111111111111</v>
+        <v>0.8411789833404527</v>
       </c>
       <c r="C87">
         <v>0.9680149591575633</v>
       </c>
       <c r="D87">
-        <v>0.8411789833404527</v>
+        <v>1.095111111111111</v>
       </c>
       <c r="E87">
         <v>0.9353961487579009</v>
@@ -3497,13 +3485,13 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>1.100246913580247</v>
+        <v>0.8879965826569842</v>
       </c>
       <c r="C88">
         <v>0.9839582718236394</v>
       </c>
       <c r="D88">
-        <v>0.8879965826569842</v>
+        <v>1.100246913580247</v>
       </c>
       <c r="E88">
         <v>0.9624430398353668</v>
@@ -3526,13 +3514,13 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>1.13037037037037</v>
+        <v>0.8757795813754804</v>
       </c>
       <c r="C89">
         <v>0.9970475346914672</v>
       </c>
       <c r="D89">
-        <v>0.8757795813754804</v>
+        <v>1.13037037037037</v>
       </c>
       <c r="E89">
         <v>0.9940467440834926</v>
@@ -3555,13 +3543,13 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>1.144098765432099</v>
+        <v>0.8791114908158905</v>
       </c>
       <c r="C90">
         <v>0.9993110914280091</v>
       </c>
       <c r="D90">
-        <v>0.8791114908158905</v>
+        <v>1.144098765432099</v>
       </c>
       <c r="E90">
         <v>0.9956636777892106</v>
@@ -3584,13 +3572,13 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>1.150123456790124</v>
+        <v>0.8744126441691584</v>
       </c>
       <c r="C91">
         <v>1.003936620411377</v>
       </c>
       <c r="D91">
-        <v>0.8744126441691584</v>
+        <v>1.150123456790124</v>
       </c>
       <c r="E91">
         <v>1.023592532706159</v>
@@ -3613,13 +3601,13 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>1.117037037037037</v>
+        <v>0.883981204613413</v>
       </c>
       <c r="C92">
         <v>1.006790670209625</v>
       </c>
       <c r="D92">
-        <v>0.883981204613413</v>
+        <v>1.117037037037037</v>
       </c>
       <c r="E92">
         <v>1.014111421431721</v>
@@ -3642,13 +3630,13 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>1.123061728395062</v>
+        <v>0.8713370354549338</v>
       </c>
       <c r="C93">
         <v>1.004822360003937</v>
       </c>
       <c r="D93">
-        <v>0.8713370354549338</v>
+        <v>1.123061728395062</v>
       </c>
       <c r="E93">
         <v>1.017565779803028</v>
@@ -3671,13 +3659,13 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>1.115358024691358</v>
+        <v>0.8809910294745833</v>
       </c>
       <c r="C94">
         <v>1.004035035921661</v>
       </c>
       <c r="D94">
-        <v>0.8809910294745833</v>
+        <v>1.115358024691358</v>
       </c>
       <c r="E94">
         <v>0.9869910333676319</v>
@@ -3700,13 +3688,13 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>1.124345679012346</v>
+        <v>0.9152498932080306</v>
       </c>
       <c r="C95">
         <v>1.016829052258636</v>
       </c>
       <c r="D95">
-        <v>0.9152498932080306</v>
+        <v>1.124345679012346</v>
       </c>
       <c r="E95">
         <v>0.9881669851536087</v>
@@ -3729,13 +3717,13 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>1.134123456790123</v>
+        <v>0.9142246903032891</v>
       </c>
       <c r="C96">
         <v>1.019683102056884</v>
       </c>
       <c r="D96">
-        <v>0.9142246903032891</v>
+        <v>1.134123456790123</v>
       </c>
       <c r="E96">
         <v>1.000367484933118</v>
@@ -3758,13 +3746,13 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>1.134320987654321</v>
+        <v>0.916104228961982</v>
       </c>
       <c r="C97">
         <v>1.028146835941344</v>
       </c>
       <c r="D97">
-        <v>0.916104228961982</v>
+        <v>1.134320987654321</v>
       </c>
       <c r="E97">
         <v>0.9966191386153168</v>
@@ -3787,13 +3775,13 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>1.150913580246914</v>
+        <v>0.9245621529260999</v>
       </c>
       <c r="C98">
         <v>1.023521306957977</v>
       </c>
       <c r="D98">
-        <v>0.9245621529260999</v>
+        <v>1.150913580246914</v>
       </c>
       <c r="E98">
         <v>1.009922093194179</v>
@@ -3816,13 +3804,13 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.181432098765432</v>
+        <v>0.9200341734301579</v>
       </c>
       <c r="C99">
         <v>1.020864088180297</v>
       </c>
       <c r="D99">
-        <v>0.9200341734301579</v>
+        <v>1.181432098765432</v>
       </c>
       <c r="E99">
         <v>1.011245038953403</v>
@@ -3845,13 +3833,13 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>1.183111111111111</v>
+        <v>0.9070482699700982</v>
       </c>
       <c r="C100">
         <v>1.025489617163665</v>
       </c>
       <c r="D100">
-        <v>0.9070482699700982</v>
+        <v>1.183111111111111</v>
       </c>
       <c r="E100">
         <v>1.032118183154491</v>
@@ -3860,7 +3848,7 @@
         <v>1.026112254310651</v>
       </c>
       <c r="G100">
-        <v>1.034113030542921</v>
+        <v>1.03411303054292</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3874,13 +3862,13 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>1.166716049382716</v>
+        <v>0.8967962409226826</v>
       </c>
       <c r="C101">
         <v>1.01781320736148</v>
       </c>
       <c r="D101">
-        <v>0.8967962409226826</v>
+        <v>1.166716049382716</v>
       </c>
       <c r="E101">
         <v>1.031824195207996</v>
@@ -3903,13 +3891,13 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>1.167012345679012</v>
+        <v>0.8946604015378042</v>
       </c>
       <c r="C102">
         <v>1.013482924908966</v>
       </c>
       <c r="D102">
-        <v>0.8946604015378042</v>
+        <v>1.167012345679012</v>
       </c>
       <c r="E102">
         <v>1.017639276789652</v>
@@ -3932,13 +3920,13 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>1.163654320987654</v>
+        <v>0.9005553182400683</v>
       </c>
       <c r="C103">
         <v>1.01446708001181</v>
       </c>
       <c r="D103">
-        <v>0.9005553182400683</v>
+        <v>1.163654320987654</v>
       </c>
       <c r="E103">
         <v>1.02175510804057</v>
@@ -3961,13 +3949,13 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>1.158617283950617</v>
+        <v>0.9018368218709953</v>
       </c>
       <c r="C104">
         <v>1.013679755929535</v>
       </c>
       <c r="D104">
-        <v>0.9018368218709953</v>
+        <v>1.158617283950617</v>
       </c>
       <c r="E104">
         <v>1.010657063060415</v>
@@ -3990,13 +3978,13 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>1.133333333333333</v>
+        <v>0.903630926954293</v>
       </c>
       <c r="C105">
         <v>1.015451235114654</v>
       </c>
       <c r="D105">
-        <v>0.903630926954293</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="E105">
         <v>1.026532412171101</v>
@@ -4019,13 +4007,13 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>1.13679012345679</v>
+        <v>0.8973942759504484</v>
       </c>
       <c r="C106">
         <v>1.01180986123413</v>
       </c>
       <c r="D106">
-        <v>0.8973942759504484</v>
+        <v>1.13679012345679</v>
       </c>
       <c r="E106">
         <v>1.025797442304865</v>
@@ -4048,13 +4036,13 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.141728395061728</v>
+        <v>0.8967962409226826</v>
       </c>
       <c r="C107">
         <v>1.017911622871765</v>
       </c>
       <c r="D107">
-        <v>0.8967962409226826</v>
+        <v>1.141728395061728</v>
       </c>
       <c r="E107">
         <v>1.053064824342202</v>
@@ -4077,13 +4065,13 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>1.142617283950617</v>
+        <v>0.8851772746689448</v>
       </c>
       <c r="C108">
         <v>1.015943312666076</v>
       </c>
       <c r="D108">
-        <v>0.8851772746689448</v>
+        <v>1.142617283950617</v>
       </c>
       <c r="E108">
         <v>1.071439070998089</v>
@@ -4106,13 +4094,13 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.103506172839506</v>
+        <v>0.8677488252883383</v>
       </c>
       <c r="C109">
         <v>1.010136797559295</v>
       </c>
       <c r="D109">
-        <v>0.8677488252883383</v>
+        <v>1.103506172839506</v>
       </c>
       <c r="E109">
         <v>1.081214170219021</v>
@@ -4135,13 +4123,13 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>1.05679012345679</v>
+        <v>0.863049978641606</v>
       </c>
       <c r="C110">
         <v>0.9916346816258242</v>
       </c>
       <c r="D110">
-        <v>0.863049978641606</v>
+        <v>1.05679012345679</v>
       </c>
       <c r="E110">
         <v>1.017345288843158</v>
@@ -4164,13 +4152,13 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>1.061037037037037</v>
+        <v>0.8614267407090986</v>
       </c>
       <c r="C111">
         <v>0.993012498769806</v>
       </c>
       <c r="D111">
-        <v>0.8614267407090986</v>
+        <v>1.061037037037037</v>
       </c>
       <c r="E111">
         <v>1.034690577686315</v>
@@ -4193,13 +4181,13 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>1.078617283950617</v>
+        <v>0.8613413071337035</v>
       </c>
       <c r="C112">
         <v>1.005904930617065</v>
       </c>
       <c r="D112">
-        <v>0.8613413071337035</v>
+        <v>1.078617283950617</v>
       </c>
       <c r="E112">
         <v>1.087387917095399</v>
@@ -4222,13 +4210,13 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>1.07358024691358</v>
+        <v>0.8572404955147372</v>
       </c>
       <c r="C113">
         <v>1.002066725715973</v>
       </c>
       <c r="D113">
-        <v>0.8572404955147372</v>
+        <v>1.07358024691358</v>
       </c>
       <c r="E113">
         <v>1.085770983389681</v>
@@ -4251,13 +4239,13 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.079407407407407</v>
+        <v>0.8598889363519863</v>
       </c>
       <c r="C114">
         <v>1.007085916740478</v>
       </c>
       <c r="D114">
-        <v>0.8598889363519863</v>
+        <v>1.079407407407407</v>
       </c>
       <c r="E114">
         <v>1.105247684844921</v>
@@ -4280,13 +4268,13 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>1.096691358024692</v>
+        <v>0.8666381888082015</v>
       </c>
       <c r="C115">
         <v>1.022537151855132</v>
       </c>
       <c r="D115">
-        <v>0.8666381888082015</v>
+        <v>1.096691358024692</v>
       </c>
       <c r="E115">
         <v>1.131559606056152</v>
@@ -4309,13 +4297,13 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>1.089975308641975</v>
+        <v>0.8687740281930797</v>
       </c>
       <c r="C116">
         <v>1.01692746776892</v>
       </c>
       <c r="D116">
-        <v>0.8687740281930797</v>
+        <v>1.089975308641975</v>
       </c>
       <c r="E116">
         <v>1.130089666323681</v>
@@ -4338,13 +4326,13 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.117333333333333</v>
+        <v>0.8883383169585647</v>
       </c>
       <c r="C117">
         <v>1.019289440015747</v>
       </c>
       <c r="D117">
-        <v>0.8883383169585647</v>
+        <v>1.117333333333333</v>
       </c>
       <c r="E117">
         <v>1.129428193444069</v>
@@ -4367,28 +4355,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.117333333333333</v>
+        <v>0.8780862879111491</v>
       </c>
       <c r="C118">
-        <v>1.019289440015747</v>
+        <v>1.027457927369353</v>
       </c>
       <c r="D118">
-        <v>0.8883383169585647</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="E118">
-        <v>1.129428193444069</v>
+        <v>1.142584154049684</v>
       </c>
       <c r="F118">
-        <v>1.022635350883417</v>
+        <v>1.016249201731356</v>
       </c>
       <c r="G118">
-        <v>1.024391051584194</v>
+        <v>1.023051780433164</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.8652712516018795</v>
+      </c>
+      <c r="C119">
+        <v>1.014762326542663</v>
+      </c>
+      <c r="D119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="E119">
+        <v>1.115757753932089</v>
+      </c>
+      <c r="F119">
+        <v>1.008869651600085</v>
+      </c>
+      <c r="G119">
+        <v>1.009578333008746</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.8711661683041435</v>
+      </c>
+      <c r="C120">
+        <v>1.016336974707214</v>
+      </c>
+      <c r="D120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="E120">
+        <v>1.111053946788182</v>
+      </c>
+      <c r="F120">
+        <v>1.018519832540978</v>
+      </c>
+      <c r="G120">
+        <v>1.016323934173587</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.8601452370781716</v>
+      </c>
+      <c r="C121">
+        <v>1.011613030213562</v>
+      </c>
+      <c r="D121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="E121">
+        <v>1.090033808613847</v>
+      </c>
+      <c r="F121">
+        <v>1.024835024480238</v>
+      </c>
+      <c r="G121">
+        <v>1.007893218780345</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.8340025630072617</v>
+      </c>
+      <c r="C122">
+        <v>0.9947839779549256</v>
+      </c>
+      <c r="D122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="E122">
+        <v>1.076142878141996</v>
+      </c>
+      <c r="F122">
+        <v>1.00517987653445</v>
+      </c>
+      <c r="G122">
+        <v>0.9950217715781555</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.8332336608287055</v>
+      </c>
+      <c r="C123">
+        <v>0.9928156677492372</v>
+      </c>
+      <c r="D123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="E123">
+        <v>1.105027193885051</v>
+      </c>
+      <c r="F123">
+        <v>0.9936848080607394</v>
+      </c>
+      <c r="G123">
+        <v>1.004921236947955</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.8416915847928235</v>
+      </c>
+      <c r="C124">
+        <v>0.995079224485779</v>
+      </c>
+      <c r="D124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="E124">
+        <v>1.11061296486844</v>
+      </c>
+      <c r="F124">
+        <v>0.9975164975519761</v>
+      </c>
+      <c r="G124">
+        <v>1.01082914943734</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.840666381888082</v>
+      </c>
+      <c r="C125">
+        <v>1.006200177147919</v>
+      </c>
+      <c r="D125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="E125">
+        <v>1.135969425253565</v>
+      </c>
+      <c r="F125">
+        <v>1.004257432768041</v>
+      </c>
+      <c r="G125">
+        <v>1.02493558576145</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.8326356258009397</v>
+      </c>
+      <c r="C126">
+        <v>0.9958665485680543</v>
+      </c>
+      <c r="D126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="E126">
+        <v>1.126047332059386</v>
+      </c>
+      <c r="F126">
+        <v>1.002554459660824</v>
+      </c>
+      <c r="G126">
+        <v>1.01984469017735</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.8311832550192225</v>
+      </c>
+      <c r="C127">
+        <v>0.9992126759177247</v>
+      </c>
+      <c r="D127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="E127">
+        <v>1.158679994120241</v>
+      </c>
+      <c r="F127">
+        <v>0.9921947065919251</v>
+      </c>
+      <c r="G127">
+        <v>1.035359246361423</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4500,18 +4749,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4543,213 +4792,195 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I2">
         <v>0.2</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>1.657299995422363</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>13.48019981384277</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.4625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3">
         <v>0.3</v>
       </c>
       <c r="J3">
-        <v>34.32</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K3">
-        <v>3.01</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L3">
-        <v>-5.03</v>
-      </c>
-      <c r="M3">
-        <v>-23.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4">
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>14.36</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K4">
-        <v>1.76</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L4">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="M4">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>0.1</v>
       </c>
       <c r="J5">
-        <v>39.13</v>
+        <v>2.899499893188477</v>
       </c>
       <c r="K5">
-        <v>2.86</v>
+        <v>40.0004997253418</v>
       </c>
       <c r="L5">
-        <v>-5.04</v>
-      </c>
-      <c r="M5">
-        <v>-15.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-15.1764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I6">
         <v>0.2</v>
       </c>
       <c r="J6">
-        <v>21.55</v>
+        <v>4.20359992980957</v>
       </c>
       <c r="K6">
-        <v>4.32</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="L6">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M6">
-        <v>1.6</v>
+        <v>1.5999</v>
       </c>
     </row>
   </sheetData>
@@ -4767,19 +4998,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4787,19 +5018,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4807,19 +5038,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4827,19 +5058,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4847,19 +5078,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4867,19 +5098,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4887,19 +5118,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4907,19 +5138,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4927,19 +5158,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4947,19 +5178,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4967,19 +5198,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4987,19 +5218,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5007,19 +5238,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5027,19 +5258,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5047,19 +5278,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5067,19 +5298,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5087,19 +5318,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5107,19 +5338,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5127,19 +5358,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5147,19 +5378,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5167,19 +5398,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5189,7 +5420,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5197,10 +5428,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5208,21 +5439,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5230,65 +5461,54 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
